--- a/biology/Botanique/Eugeissona/Eugeissona.xlsx
+++ b/biology/Botanique/Eugeissona/Eugeissona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugeissona est un genre de la famille des Arecaceae (Palmiers), comprenant des espèces natives de Bornéo, Thaïlande et Malaisie
 </t>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sous-famille des Calamoideae
 Tribu des Eugeissoneae</t>
@@ -542,13 +556,15 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Eugeissona ambigua Becc., Ann. Roy. Bot. Gard. (Calcutta) 12(2): 200 (1918).
 Eugeissona brachystachys Ridl., J. Fed. Malay States Mus. 6: 189 (1915).
 Eugeissona insignis Becc., Nuovo Giorn. Bot. Ital. 3: 22 (1871).
 Eugeissona minor Becc., Nuovo Giorn. Bot. Ital. 3: 18 (1871).
-Eugeissona tristis Griff., Calcutta J. Nat. Hist. 5: 101 (1845). Aussi appelé palmier de Bertram, il est connu pour ses fleurs qui fabrique un nectar alcoolisé (avec un taux d'alcool pouvant monter jusqu'à 3,8%)[1].
+Eugeissona tristis Griff., Calcutta J. Nat. Hist. 5: 101 (1845). Aussi appelé palmier de Bertram, il est connu pour ses fleurs qui fabrique un nectar alcoolisé (avec un taux d'alcool pouvant monter jusqu'à 3,8%).
 Eugeissona utilis Becc., Nuovo Giorn. Bot. Ital. 3: 26 (1871).</t>
         </is>
       </c>
